--- a/汽柴煤油2.0/data_input/TA期货指数.xlsx
+++ b/汽柴煤油2.0/data_input/TA期货指数.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4581"/>
+  <dimension ref="A1:D4583"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53665,6 +53665,34 @@
         <v>4540</v>
       </c>
     </row>
+    <row r="4582">
+      <c r="A4582" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B4582" t="n">
+        <v>468.4</v>
+      </c>
+      <c r="C4582" t="n">
+        <v>1917.12</v>
+      </c>
+      <c r="D4582" t="n">
+        <v>4587</v>
+      </c>
+    </row>
+    <row r="4583">
+      <c r="A4583" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B4583" t="n">
+        <v>466.5</v>
+      </c>
+      <c r="C4583" t="n">
+        <v>1963.95</v>
+      </c>
+      <c r="D4583" t="n">
+        <v>4623</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
